--- a/input/conc_medium/conc_medium_to_curate_2021-08-26_rrs.xlsx
+++ b/input/conc_medium/conc_medium_to_curate_2021-08-26_rrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsayre01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JWALL01\ONEDRI~1\Profile\DOCUME~1\MobaXterm\slash\RemoteFiles\527060_2_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF7754C4-A80D-456E-8C19-56AC507BDBB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202AC2F-CA8C-49AE-956C-8F3E05F8C24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11730" yWindow="3390" windowWidth="16500" windowHeight="8145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>conc_medium_original</t>
   </si>
@@ -34,9 +34,6 @@
     <t>exhaled alveolar</t>
   </si>
   <si>
-    <t>chamber air</t>
-  </si>
-  <si>
     <t>large intestine</t>
   </si>
   <si>
@@ -46,51 +43,18 @@
     <t>testis</t>
   </si>
   <si>
-    <t>alveolar butadiene</t>
-  </si>
-  <si>
-    <t>other organs</t>
-  </si>
-  <si>
-    <t>red blood cells</t>
-  </si>
-  <si>
-    <t>sciatic nerve</t>
-  </si>
-  <si>
     <t>adrenals</t>
   </si>
   <si>
     <t>kidneys</t>
   </si>
   <si>
-    <t>pulmonary retention</t>
-  </si>
-  <si>
-    <t>absorption amount</t>
-  </si>
-  <si>
-    <t>fetal plasma</t>
-  </si>
-  <si>
     <t>amniotic fluid</t>
   </si>
   <si>
-    <t>gi tract tissue</t>
-  </si>
-  <si>
     <t>gi tract contents</t>
   </si>
   <si>
-    <t>tissue total</t>
-  </si>
-  <si>
-    <t>cage rinse</t>
-  </si>
-  <si>
-    <t>excreta total</t>
-  </si>
-  <si>
     <t>plasma (male rats)</t>
   </si>
   <si>
@@ -130,31 +94,13 @@
     <t>serum (female monkey)</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>olive oil</t>
-  </si>
-  <si>
     <t>abdominal fat</t>
   </si>
   <si>
-    <t>dermal bioavailability</t>
-  </si>
-  <si>
     <t>lungs</t>
   </si>
   <si>
     <t>thyroid</t>
-  </si>
-  <si>
-    <t>concentrations in the gas phase of 6.4 1 desiccator jar chamber was measured</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>femur</t>
   </si>
   <si>
     <t>mammary</t>
@@ -595,20 +541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,386 +562,237 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
